--- a/Perfect Doctor Exercise.xlsx
+++ b/Perfect Doctor Exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTS\Dropbox\Workshops OoU\Mixtape Session\Causal-Inference-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799EE361-E9A1-4B99-AAFC-6152B7303213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD183E1-2C45-40F5-8D28-848B86494A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="3024" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="3024" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO 1" sheetId="1" r:id="rId1"/>
@@ -1425,7 +1425,7 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2059,8 +2059,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2104,8 +2104,13 @@
       <c r="C2" s="22">
         <v>15</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="10">
+        <f>B2-C2</f>
+        <v>-1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
       <c r="G2" s="53" t="s">
         <v>8</v>
       </c>
@@ -2123,8 +2128,13 @@
       <c r="C3" s="22">
         <v>20</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D12" si="0">B3-C3</f>
+        <v>-5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
       <c r="G3" s="55" t="s">
         <v>60</v>
       </c>
@@ -2142,8 +2152,13 @@
       <c r="C4" s="22">
         <v>16</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
       <c r="G4" s="48" t="s">
         <v>61</v>
       </c>
@@ -2161,8 +2176,13 @@
       <c r="C5" s="22">
         <v>11</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
       <c r="G5" s="55" t="s">
         <v>62</v>
       </c>
@@ -2180,8 +2200,13 @@
       <c r="C6" s="22">
         <v>1</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
       <c r="G6" s="51" t="s">
         <v>63</v>
       </c>
@@ -2199,8 +2224,13 @@
       <c r="C7" s="22">
         <v>2</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
       <c r="G7" s="51" t="s">
         <v>64</v>
       </c>
@@ -2218,8 +2248,13 @@
       <c r="C8" s="22">
         <v>6</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
@@ -2231,8 +2266,13 @@
       <c r="C9" s="22">
         <v>6</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
@@ -2244,8 +2284,13 @@
       <c r="C10" s="22">
         <v>0</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
@@ -2257,8 +2302,13 @@
       <c r="C11" s="22">
         <v>20</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
@@ -2270,8 +2320,13 @@
       <c r="C12" s="22">
         <v>6</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
@@ -2297,7 +2352,10 @@
       <c r="A15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="22">
+        <f>AVERAGE(D2:D12)</f>
+        <v>2</v>
+      </c>
       <c r="C15" s="23"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -2306,7 +2364,10 @@
       <c r="A16" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="22">
+        <f>AVERAGE(D2,D4,D5,D6,D9)</f>
+        <v>0.8</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -2315,7 +2376,10 @@
       <c r="A17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="22">
+        <f>AVERAGE(D3,D7,D8,D10,D11,D12)</f>
+        <v>3</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2340,7 +2404,10 @@
       <c r="A20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="30">
+        <f>AVERAGE(E2:E12)</f>
+        <v>0.45454545454545453</v>
+      </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -2356,7 +2423,10 @@
       <c r="A22" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="32">
+        <f>B20*B16+(1-B20)*B17</f>
+        <v>2</v>
+      </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2377,5 +2447,6 @@
     <mergeCell ref="G5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>